--- a/Data/USA/capital_allowances.xlsx
+++ b/Data/USA/capital_allowances.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dietz/Dropbox/Project/LaborShare/Data/USA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dietz/Dropbox/Project/Elasticity/Data/USA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A1DF6A-F213-0443-A172-7DFC36DDBFDB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC5EEF8-4AE6-7042-A06A-6C4F51C31CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25100" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="31240" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <t>For 2013 through 2017, no data available</t>
   </si>
   <si>
-    <t>Data was pulled manually from OECD reports</t>
+    <t>https://taxfoundation.org/data/all/federal/oecd-capital-allowances-three-assets-1979-2012/</t>
   </si>
 </sst>
 </file>
@@ -370,10 +370,10 @@
   <dimension ref="A1:AP6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AJ7" sqref="AJ7:AJ9"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
